--- a/v3/example/KV.xlsx
+++ b/v3/example/KV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>字段名</t>
   </si>
@@ -28,10 +28,7 @@
     <t>值</t>
   </si>
   <si>
-    <t>数组</t>
-  </si>
-  <si>
-    <t>切割符</t>
+    <t>数组切割</t>
   </si>
   <si>
     <t>ServerIP</t>
@@ -61,8 +58,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -92,6 +89,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -100,37 +135,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,7 +173,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,68 +181,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,8 +195,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,19 +248,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,31 +380,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,37 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,85 +422,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +457,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -471,15 +516,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,45 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -565,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,21 +1039,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1072,121 +1068,106 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="3">
         <v>1024</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:6">
+    </row>
+    <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:6">
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:6">
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:6">
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:6">
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:6">
+    </row>
+    <row r="9" ht="16.5" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:6">
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:6">
+    </row>
+    <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:6">
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:6">
+    </row>
+    <row r="13" ht="16.5" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/v3/example/KV.xlsx
+++ b/v3/example/KV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>字段名</t>
   </si>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t>服务器端口</t>
+  </si>
+  <si>
+    <t>GroupID</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>1;2;3</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
 </sst>
 </file>
@@ -58,8 +73,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -90,74 +105,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,22 +128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -195,16 +136,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,22 +219,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,37 +263,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,49 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,85 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,22 +476,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,8 +484,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +501,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,26 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +589,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1100,18 +1115,28 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" ht="16.5" spans="1:5">
       <c r="A6" s="4"/>
@@ -1169,6 +1194,13 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/v3/example/KV.xlsx
+++ b/v3/example/KV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>字段名</t>
   </si>
@@ -50,21 +50,6 @@
   </si>
   <si>
     <t>服务器端口</t>
-  </si>
-  <si>
-    <t>GroupID</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>1;2;3</t>
-  </si>
-  <si>
-    <t>;</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1042,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1122,21 +1107,11 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" ht="16.5" spans="1:5">
       <c r="A6" s="4"/>

--- a/v3/example/KV.xlsx
+++ b/v3/example/KV.xlsx
@@ -58,9 +58,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -90,16 +90,99 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,16 +196,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,66 +213,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,32 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,49 +248,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,133 +380,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,11 +466,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +505,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,30 +525,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,31 +574,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,100 +613,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
